--- a/data/trans_dic/P25_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica</t>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +705,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>1,57%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,75</t>
+          <t>0,68; 5,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,8</t>
+          <t>0,92; 7,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,91; 8,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,63; 5,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,01</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,31</t>
+          <t>0,0; 4,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 4,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,97</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 4,25</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 5,28</t>
         </is>
       </c>
     </row>
@@ -806,52 +915,82 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,18%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>3,8%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>0,91%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>4,51%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 12,65</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>1,75; 11,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,78</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,56</t>
+          <t>0,41; 4,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,31</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,73</t>
+          <t>1,6; 7,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,01</t>
+          <t>1,06; 6,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,96</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,64</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 7,84</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 3,95</t>
         </is>
       </c>
     </row>
@@ -936,7 +1105,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -951,47 +1120,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>1,78%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>1,85%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,64</t>
+          <t>0,26; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,93</t>
+          <t>0,58; 4,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,64</t>
+          <t>0,55; 5,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,83</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,22</t>
+          <t>0,29; 2,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,35</t>
+          <t>0,8; 3,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,81</t>
+          <t>1,23; 4,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,06</t>
+          <t>0,92; 7,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,92</t>
+          <t>0,39; 4,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,61</t>
+          <t>1,43; 6,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 2,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 1,94</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 2,81</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 5,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 3,64</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 3,74</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1305,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,52 +1315,82 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,26%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,31%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>1,91%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>4,21%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>3,18%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,56</t>
+          <t>0,41; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,13</t>
+          <t>1,35; 4,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,42</t>
+          <t>0,68; 3,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,53</t>
+          <t>0,89; 4,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,67</t>
+          <t>0,75; 4,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,91</t>
+          <t>1,0; 6,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,77</t>
+          <t>0,96; 4,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,15</t>
+          <t>0,8; 3,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,34</t>
+          <t>0,86; 4,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,61</t>
+          <t>0,89; 4,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,98</t>
+          <t>2,17; 7,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,9</t>
+          <t>3,16; 8,51</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 3,4</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 3,73</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 3,12</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 3,74</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 5,13</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 6,25</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>10,03%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>6,48%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>8,18%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,68</t>
+          <t>1,85; 7,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,58</t>
+          <t>3,5; 10,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,23</t>
+          <t>5,87; 15,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,53</t>
+          <t>3,94; 13,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,75</t>
+          <t>5,93; 15,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,69</t>
+          <t>6,81; 15,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,81</t>
+          <t>2,35; 8,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,25</t>
+          <t>2,97; 8,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,67</t>
+          <t>3,03; 8,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,01</t>
+          <t>2,29; 8,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,79</t>
+          <t>3,64; 10,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,18</t>
+          <t>3,51; 11,09</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 6,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 8,02</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 10,55</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 9,81</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 11,1</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 11,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,87%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 18,23</t>
+          <t>9,12; 19,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 21,03</t>
+          <t>8,85; 20,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,44; 19,41</t>
+          <t>7,88; 18,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 19,91</t>
+          <t>4,98; 15,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,86</t>
+          <t>7,07; 20,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,65</t>
+          <t>4,87; 13,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 13,24</t>
+          <t>3,66; 13,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,97</t>
+          <t>3,03; 10,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,31</t>
+          <t>5,66; 16,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,08</t>
+          <t>2,23; 9,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,06</t>
+          <t>0,59; 5,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,59</t>
+          <t>5,37; 15,2</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 14,32</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 13,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 15,29</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 10,11</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 9,97</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 12,84</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>5,49%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>4,28%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,53</t>
+          <t>2,45; 4,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,13</t>
+          <t>2,97; 5,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,48</t>
+          <t>2,97; 5,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,27</t>
+          <t>2,44; 4,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,95</t>
+          <t>4,17; 7,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,91</t>
+          <t>3,04; 5,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,45</t>
+          <t>2,03; 4,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,07</t>
+          <t>2,09; 3,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,81</t>
+          <t>2,6; 5,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,17</t>
+          <t>2,0; 4,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,52</t>
+          <t>2,25; 4,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,37</t>
+          <t>3,9; 6,59</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 4,18</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 4,37</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 4,72</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 4,14</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 5,46</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 5,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10556</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10940</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9797</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>20352</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14219</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3391; 27716</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 52560</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>385; 3324</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>399; 3816</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2960; 25143</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16454</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11813</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18462</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1637</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7161; 41559</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 52461</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12062</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18697</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>386; 3379</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>418; 4359</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2730</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2584</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7074</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9804</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7026</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1757</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15464</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17967</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>875; 5689</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2237</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2091; 22960</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14664</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17175</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>758; 3488</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>486; 2991</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2600; 23285</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1676; 21806</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0; 28596</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2361; 7610</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>689; 3751</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5404</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12704</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6703</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13235</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17108</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20859</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12107</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15214</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>23212</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>33563</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2369</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20419</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9851</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1763; 17754</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3934; 29074</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>327; 3021</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2262</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2099; 17969</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5759; 26781</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8814; 30374</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6600; 57340</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>213; 2327</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>782; 3828</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4567; 28485</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7067; 27115</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>12837; 39185</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16762; 76398</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1024; 4143</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1079; 4328</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10540</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17879</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10844</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15014</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1694</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16533</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12862</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12892</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14854</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2206</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2804</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27073</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>30741</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>23736</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>29868</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3520</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2635; 26067</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8703; 32096</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4322; 23996</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5809; 31471</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>438; 2670</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>566; 3572</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6571; 33040</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5401; 26502</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5685; 27398</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5905; 28054</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1140; 3924</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1689; 4552</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>14006; 45287</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>17670; 49235</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>13304; 40364</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>16166; 49217</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1950; 5680</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2766; 6887</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19775</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30548</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>46793</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36164</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4655</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22894</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27188</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28210</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25103</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3143</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>42669</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>57735</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>75003</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>61266</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7607</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7748</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9141; 37570</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17653; 51813</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28951; 74542</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19518; 67876</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2638; 6756</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3054; 7043</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11852; 40388</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14930; 43504</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15585; 45022</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11847; 45952</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1769; 5046</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1640; 5172</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>27037; 67656</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>38369; 80743</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>51906; 106424</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>38823; 99299</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5201; 10322</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5515; 10744</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>73067</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>74661</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>68318</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>49958</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5795</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>51664</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40301</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>63480</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>38346</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5853</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>124731</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>114962</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>131798</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>88304</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>6968</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>9796</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>49722; 106958</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>46844; 107889</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>41950; 99582</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>28235; 85780</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3313; 9374</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2232; 6355</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26281; 97008</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21086; 72994</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>39221; 115679</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16349; 72825</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>373; 3220</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3421; 9677</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>89379; 180794</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>82547; 160601</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>94960; 187356</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>52115; 131482</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>4198; 10954</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>6519; 14058</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>119342</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>138737</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>135120</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16554</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>12544</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>107589</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>103937</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>127882</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>105909</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9276</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>15332</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>226931</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>242675</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>263003</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>223639</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>25830</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>27876</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>84646; 162135</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>102245; 190853</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>102413; 178358</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>84097; 171251</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>12574; 21968</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9142; 16606</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>73080; 164185</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>75520; 143371</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>93821; 183091</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>72273; 154750</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6813; 12566</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11826; 19983</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>174093; 294986</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>192485; 308346</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>209646; 333117</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>177298; 292407</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>20738; 33000</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>22929; 35351</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
